--- a/SNAP_Demo_Functional.xlsx
+++ b/SNAP_Demo_Functional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,6 +44,9 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsModified/Added</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_1</x:t>
@@ -202,9 +205,9 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
-  <x:autoFilter ref="A1:J7"/>
-  <x:tableColumns count="10">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0">
+  <x:autoFilter ref="A1:K7"/>
+  <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
     <x:tableColumn id="3" name="Description"/>
@@ -215,6 +218,7 @@
     <x:tableColumn id="8" name="ExpectedResult"/>
     <x:tableColumn id="9" name="Approved/Rejected"/>
     <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -508,7 +512,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
+  <x:dimension ref="A1:K7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -524,9 +528,10 @@
     <x:col min="8" max="8" width="57.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" s="1" customFormat="1">
+    <x:row r="1" spans="1:11" s="1" customFormat="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -557,134 +562,143 @@
       <x:c r="J1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:10">
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s"/>
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s"/>
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:10">
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:10">
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s"/>
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
